--- a/anul 2/cel/lab1.xlsx
+++ b/anul 2/cel/lab1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\anul 2\cel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A36DEF-A743-44F7-99A2-1628A173BCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F548534-171F-4966-B2B9-E037B5F93BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4FA815B8-6BF2-4F7E-B97B-9877EB1A20EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4FA815B8-6BF2-4F7E-B97B-9877EB1A20EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Dioda Zener" sheetId="1" r:id="rId1"/>
+    <sheet name="LED" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>tem</t>
   </si>
@@ -49,9 +49,6 @@
     <t>r 2k2</t>
   </si>
   <si>
-    <t>dioda zener</t>
-  </si>
-  <si>
     <t>r1k</t>
   </si>
   <si>
@@ -61,70 +58,16 @@
     <t>U(v)</t>
   </si>
   <si>
-    <t>I(ma)</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.160</t>
-  </si>
-  <si>
-    <t>0.094</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.590</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.890</t>
-  </si>
-  <si>
-    <t>0.927</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
     <t>pt r 1k</t>
   </si>
   <si>
     <t>pt r 2k2</t>
+  </si>
+  <si>
+    <t>I(A)</t>
+  </si>
+  <si>
+    <t>i(A)</t>
   </si>
 </sst>
 </file>
@@ -158,11 +101,119 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -171,10 +222,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,7 +369,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$20</c:f>
+              <c:f>'Dioda Zener'!$N$2:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -363,7 +435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$20</c:f>
+              <c:f>'Dioda Zener'!$O$2:$O$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -371,58 +443,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>5.8E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.375</c:v>
+                  <c:v>3.7500000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95</c:v>
+                  <c:v>9.5E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7430000000000001</c:v>
+                  <c:v>1.743E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.617</c:v>
+                  <c:v>2.617E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5139999999999998</c:v>
+                  <c:v>3.5140000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4119999999999999</c:v>
+                  <c:v>4.4120000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4</c:v>
+                  <c:v>5.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3959999999999999</c:v>
+                  <c:v>6.3959999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.3929999999999998</c:v>
+                  <c:v>7.3930000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3249999999999993</c:v>
+                  <c:v>8.3250000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3949999999999996</c:v>
+                  <c:v>9.3950000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.324999999999999</c:v>
+                  <c:v>1.0325000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.382999999999999</c:v>
+                  <c:v>1.1383000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.342000000000001</c:v>
+                  <c:v>1.2342000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.442</c:v>
+                  <c:v>1.3442000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.497999999999999</c:v>
+                  <c:v>1.4498E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.510999999999999</c:v>
+                  <c:v>1.5511E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,6 +538,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>u(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -528,6 +655,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>i(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -725,7 +907,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>'Dioda Zener'!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -791,7 +973,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:f>'Dioda Zener'!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -799,58 +981,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>4.6E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24099999999999999</c:v>
+                  <c:v>2.41E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53200000000000003</c:v>
+                  <c:v>5.3200000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90700000000000003</c:v>
+                  <c:v>9.0700000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2969999999999999</c:v>
+                  <c:v>1.297E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7070000000000001</c:v>
+                  <c:v>1.707E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1509999999999998</c:v>
+                  <c:v>2.1510000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5659999999999998</c:v>
+                  <c:v>2.5660000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.012</c:v>
+                  <c:v>3.0119999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.472</c:v>
+                  <c:v>3.4719999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9159999999999999</c:v>
+                  <c:v>3.9160000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3600000000000003</c:v>
+                  <c:v>4.3600000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.7880000000000003</c:v>
+                  <c:v>4.7879999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2720000000000002</c:v>
+                  <c:v>5.2719999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.702</c:v>
+                  <c:v>5.7019999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1660000000000004</c:v>
+                  <c:v>6.1659999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6420000000000003</c:v>
+                  <c:v>6.6420000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0970000000000004</c:v>
+                  <c:v>7.097E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,6 +1076,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>u(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -956,6 +1193,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>i(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -994,6 +1286,912 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="271911935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LED!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>1.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>1.7609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>1.7929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>1.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>1.885</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000">
+                  <c:v>1.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LED!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CF0-427A-9163-8348B43CC263}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1557434591"/>
+        <c:axId val="1557435423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1557434591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>u(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557435423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557435423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>i(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557434591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LED!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000">
+                  <c:v>1.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000">
+                  <c:v>1.7609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>1.7929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.000">
+                  <c:v>1.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.000">
+                  <c:v>1.885</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000">
+                  <c:v>1.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LED!$M$2:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F02F-467C-9EA4-1619399D1E6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1557434591"/>
+        <c:axId val="1557435423"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1557434591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>u(V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557435423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1557435423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>i(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1557434591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1129,6 +2327,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2161,20 +3439,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2201,16 +4511,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2222,6 +4532,85 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88DD26C-57B0-4E89-A930-8FC262CE5B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F854B89-45DB-4907-8002-76A0DA018297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2535,424 +4924,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29C4A05-D170-4F5C-A5B4-DA89D3321385}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M2" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2.0129999999999999</v>
-      </c>
-      <c r="C2">
+      <c r="N2" s="16">
+        <v>2.016</v>
+      </c>
+      <c r="O2" s="16">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2.016</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="16">
         <v>2.9279999999999999</v>
       </c>
-      <c r="C3">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H3">
+      <c r="C3" s="16">
+        <v>4.6E-5</v>
+      </c>
+      <c r="M3" s="16">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="N3" s="16">
         <v>3.0070000000000001</v>
       </c>
-      <c r="J3">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="O3" s="16">
+        <v>5.8E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="16">
         <v>3.524</v>
       </c>
-      <c r="C4">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="H4">
+      <c r="C4" s="16">
+        <v>2.41E-4</v>
+      </c>
+      <c r="M4" s="16">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="N4" s="16">
         <v>3.702</v>
       </c>
-      <c r="J4">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="O4" s="16">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="16">
         <v>3.8460000000000001</v>
       </c>
-      <c r="C5">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="H5">
+      <c r="C5" s="16">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="M5" s="16">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="N5" s="16">
         <v>4.09</v>
       </c>
-      <c r="J5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="O5" s="16">
+        <v>9.5E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="16">
         <v>4.07</v>
       </c>
-      <c r="C6">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="H6">
+      <c r="C6" s="16">
+        <v>9.0700000000000004E-4</v>
+      </c>
+      <c r="M6" s="16">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="N6" s="16">
         <v>4.34</v>
       </c>
-      <c r="J6">
-        <v>1.7430000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="O6" s="16">
+        <v>1.743E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="16">
         <v>4.21</v>
       </c>
-      <c r="C7">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="H7">
+      <c r="C7" s="16">
+        <v>1.297E-3</v>
+      </c>
+      <c r="M7" s="16">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="N7" s="16">
         <v>4.49</v>
       </c>
-      <c r="J7">
-        <v>2.617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="O7" s="16">
+        <v>2.617E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="16">
         <v>4.33</v>
       </c>
-      <c r="C8">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="H8">
+      <c r="C8" s="16">
+        <v>1.707E-3</v>
+      </c>
+      <c r="M8" s="16">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="N8" s="16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J8">
-        <v>3.5139999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="O8" s="16">
+        <v>3.5140000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="16">
         <v>4.41</v>
       </c>
-      <c r="C9">
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="H9">
+      <c r="C9" s="16">
+        <v>2.1510000000000001E-3</v>
+      </c>
+      <c r="M9" s="16">
         <v>9</v>
       </c>
-      <c r="I9">
+      <c r="N9" s="16">
         <v>4.67</v>
       </c>
-      <c r="J9">
-        <v>4.4119999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="O9" s="16">
+        <v>4.4120000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="16">
         <v>4.4800000000000004</v>
       </c>
-      <c r="C10">
-        <v>2.5659999999999998</v>
-      </c>
-      <c r="H10">
+      <c r="C10" s="16">
+        <v>2.5660000000000001E-3</v>
+      </c>
+      <c r="M10" s="16">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="N10" s="16">
         <v>4.74</v>
       </c>
-      <c r="J10">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="O10" s="16">
+        <v>5.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="16">
         <v>4.54</v>
       </c>
-      <c r="C11">
-        <v>3.012</v>
-      </c>
-      <c r="H11">
+      <c r="C11" s="16">
+        <v>3.0119999999999999E-3</v>
+      </c>
+      <c r="M11" s="16">
         <v>11</v>
       </c>
-      <c r="I11">
+      <c r="N11" s="16">
         <v>4.78</v>
       </c>
-      <c r="J11">
-        <v>6.3959999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="O11" s="16">
+        <v>6.3959999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="16">
         <v>4.59</v>
       </c>
-      <c r="C12">
-        <v>3.472</v>
-      </c>
-      <c r="H12">
+      <c r="C12" s="16">
+        <v>3.4719999999999998E-3</v>
+      </c>
+      <c r="M12" s="16">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="N12" s="16">
         <v>4.83</v>
       </c>
-      <c r="J12">
-        <v>7.3929999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="O12" s="16">
+        <v>7.3930000000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="16">
         <v>4.63</v>
       </c>
-      <c r="C13">
-        <v>3.9159999999999999</v>
-      </c>
-      <c r="H13">
+      <c r="C13" s="16">
+        <v>3.9160000000000002E-3</v>
+      </c>
+      <c r="M13" s="16">
         <v>13</v>
       </c>
-      <c r="I13">
+      <c r="N13" s="16">
         <v>4.8600000000000003</v>
       </c>
-      <c r="J13">
-        <v>8.3249999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="O13" s="16">
+        <v>8.3250000000000008E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="16">
         <v>4.66</v>
       </c>
-      <c r="C14">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="H14">
+      <c r="C14" s="16">
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="M14" s="16">
         <v>14</v>
       </c>
-      <c r="I14">
+      <c r="N14" s="16">
         <v>4.8899999999999997</v>
       </c>
-      <c r="J14">
-        <v>9.3949999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="O14" s="16">
+        <v>9.3950000000000006E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="16">
         <v>4.7</v>
       </c>
-      <c r="C15">
-        <v>4.7880000000000003</v>
-      </c>
-      <c r="H15">
+      <c r="C15" s="16">
+        <v>4.7879999999999997E-3</v>
+      </c>
+      <c r="M15" s="16">
         <v>15</v>
       </c>
-      <c r="I15">
+      <c r="N15" s="16">
         <v>4.91</v>
       </c>
-      <c r="J15">
-        <v>10.324999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="O15" s="16">
+        <v>1.0325000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="16">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C16">
-        <v>5.2720000000000002</v>
-      </c>
-      <c r="H16">
+      <c r="C16" s="16">
+        <v>5.2719999999999998E-3</v>
+      </c>
+      <c r="M16" s="16">
         <v>16</v>
       </c>
-      <c r="I16">
+      <c r="N16" s="16">
         <v>4.9400000000000004</v>
       </c>
-      <c r="J16">
-        <v>11.382999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="O16" s="16">
+        <v>1.1383000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="16">
         <v>4.75</v>
       </c>
-      <c r="C17">
-        <v>5.702</v>
-      </c>
-      <c r="H17">
+      <c r="C17" s="16">
+        <v>5.7019999999999996E-3</v>
+      </c>
+      <c r="M17" s="16">
         <v>17</v>
       </c>
-      <c r="I17">
+      <c r="N17" s="16">
         <v>4.96</v>
       </c>
-      <c r="J17">
-        <v>12.342000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="O17" s="16">
+        <v>1.2342000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="16">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C18">
-        <v>6.1660000000000004</v>
-      </c>
-      <c r="H18">
+      <c r="C18" s="16">
+        <v>6.1659999999999996E-3</v>
+      </c>
+      <c r="M18" s="16">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="N18" s="16">
         <v>4.97</v>
       </c>
-      <c r="J18">
-        <v>13.442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="O18" s="16">
+        <v>1.3442000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="16">
         <v>4.8</v>
       </c>
-      <c r="C19">
-        <v>6.6420000000000003</v>
-      </c>
-      <c r="H19">
+      <c r="C19" s="16">
+        <v>6.6420000000000003E-3</v>
+      </c>
+      <c r="M19" s="16">
         <v>19</v>
       </c>
-      <c r="I19">
+      <c r="N19" s="16">
         <v>4.99</v>
       </c>
-      <c r="J19">
-        <v>14.497999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="O19" s="16">
+        <v>1.4498E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="16">
         <v>4.82</v>
       </c>
-      <c r="C20">
-        <v>7.0970000000000004</v>
-      </c>
-      <c r="H20">
+      <c r="C20" s="16">
+        <v>7.097E-3</v>
+      </c>
+      <c r="M20" s="16">
         <v>20</v>
       </c>
-      <c r="I20">
+      <c r="N20" s="16">
         <v>5</v>
       </c>
-      <c r="J20">
-        <v>15.510999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="O20" s="16">
+        <v>1.5511E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="5"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,10 +5637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CC5B9F-67F9-4D7D-9DCD-E6E22DD8109F}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,379 +5653,697 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="M1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="O1" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="B2" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.16</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="J2" s="1"/>
+      <c r="M2" s="15">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="N2" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="14">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+      <c r="B3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.51100000000000001</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="J3" s="1"/>
+      <c r="M3" s="15">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="N3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
+      <c r="B4" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.59</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="J4" s="1"/>
+      <c r="M4" s="15">
         <v>0</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="N4" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
+      <c r="B5" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.69599999999999995</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="J5" s="1"/>
+      <c r="M5" s="15">
         <v>0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="N5" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
+      <c r="B6" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.80600000000000005</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="J6" s="1"/>
+      <c r="M6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="N6" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
+      <c r="B7" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.89</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="J7" s="1"/>
+      <c r="M7" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="N7" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
-        <v>1013</v>
+      <c r="C8" s="15">
+        <v>1.0129999999999999</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="J8" s="1"/>
+      <c r="M8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="N8" s="15">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="O8" s="15">
         <v>1.0149999999999999</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="B9" s="2">
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>0</v>
+      </c>
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="15">
+        <v>1.7</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="J9" s="1"/>
+      <c r="M9" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="N9" s="15">
         <v>2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="O9" s="15">
         <v>1.669</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="B10" s="2">
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="15">
         <v>1.7609999999999999</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="J10" s="1"/>
+      <c r="M10" s="14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N10" s="15">
         <v>3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="O10" s="15">
         <v>1.7250000000000001</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2.319</v>
-      </c>
-      <c r="B11" s="2">
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="B11" s="15">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="15">
         <v>1.7929999999999999</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1070</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="J11" s="1"/>
+      <c r="M11" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="N11" s="15">
         <v>4</v>
       </c>
-      <c r="I11" s="2">
+      <c r="O11" s="15">
         <v>1.752</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>3.2829999999999999</v>
-      </c>
-      <c r="B12" s="2">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B12" s="15">
         <v>5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="15">
         <v>1.8149999999999999</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1508</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="J12" s="1"/>
+      <c r="M12" s="15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N12" s="15">
         <v>5</v>
       </c>
-      <c r="I12" s="2">
+      <c r="O12" s="15">
         <v>1.7689999999999999</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>8.3510000000000009</v>
-      </c>
-      <c r="B13" s="2">
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="15">
         <v>1.885</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>3800</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="J13" s="1"/>
+      <c r="M13" s="15">
+        <v>3.8E-3</v>
+      </c>
+      <c r="N13" s="15">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
+      <c r="O13" s="15">
         <v>1.8240000000000001</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>18.626000000000001</v>
-      </c>
-      <c r="B14" s="2">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B14" s="15">
         <v>20</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="15">
         <v>1.96</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>8496</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="J14" s="1"/>
+      <c r="M14" s="15">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="N14" s="15">
         <v>20</v>
       </c>
-      <c r="I14" s="2">
+      <c r="O14" s="15">
         <v>1.885</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>24.061</v>
-      </c>
-      <c r="B15" s="2">
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B15" s="15">
         <v>25</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="15">
         <v>1.98</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>10845</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="J15" s="1"/>
+      <c r="M15" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="15">
         <v>25</v>
       </c>
-      <c r="I15" s="2">
+      <c r="O15" s="15">
         <v>1.9059999999999999</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="5"/>
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="8"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>